--- a/Excel/Digital Analytics Sample.xlsx
+++ b/Excel/Digital Analytics Sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cathy_kath/Documents/GitHub/Marketing Portfolio/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A042F535-A2B6-294E-815D-B368C8998E2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C7C557F-BE80-FB47-9900-DBA49D0540A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -658,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -830,47 +830,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -883,6 +871,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1997,7 +1992,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F9F3358-AEE2-DD45-8738-9FE1A0980AA2}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0F9F3358-AEE2-DD45-8738-9FE1A0980AA2}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A1:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="2">
     <pivotField dataField="1" showAll="0"/>
@@ -2276,7 +2271,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2363,7 +2358,7 @@
         <v>8.633214126061689E-3</v>
       </c>
       <c r="D3" s="19"/>
-      <c r="E3" s="70"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
@@ -2634,10 +2629,10 @@
       <c r="Q11" s="19"/>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="68"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="27">
         <f t="shared" ref="C12:P12" si="0">WEEKNUM(C13)-WEEKNUM(EOMONTH(C13,-1)+1)+1</f>
         <v>3</v>
@@ -2697,10 +2692,10 @@
       <c r="Q12" s="19"/>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="84" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="28">
@@ -2761,8 +2756,8 @@
       <c r="Q13" s="19"/>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="68"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="29" t="str">
         <f t="shared" ref="C14:P14" si="2">TEXT(C13,"ddd")</f>
         <v>Thu</v>
@@ -3022,7 +3017,7 @@
         <v>58</v>
       </c>
       <c r="C20" s="19"/>
-      <c r="D20" s="70"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="36"/>
       <c r="F20" s="32"/>
       <c r="G20" s="32"/>
@@ -3037,7 +3032,7 @@
       <c r="P20" s="32"/>
       <c r="Q20" s="19"/>
     </row>
-    <row r="21" spans="1:26" ht="75" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:26" ht="45" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
         <v>16</v>
       </c>
@@ -3060,7 +3055,7 @@
       <c r="P21" s="32"/>
       <c r="Q21" s="19"/>
     </row>
-    <row r="22" spans="1:26" ht="60" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:26" ht="45" x14ac:dyDescent="0.15">
       <c r="A22" s="30" t="s">
         <v>17</v>
       </c>
@@ -3125,12 +3120,12 @@
       <c r="A25" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="B25" s="79"/>
+      <c r="B25" s="74"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
       <c r="E25" s="41"/>
       <c r="F25" s="42"/>
-      <c r="G25" s="77" t="s">
+      <c r="G25" s="72" t="s">
         <v>91</v>
       </c>
       <c r="H25" s="32"/>
@@ -3167,10 +3162,10 @@
         <v>23</v>
       </c>
       <c r="H26" s="47"/>
-      <c r="I26" s="78"/>
-      <c r="J26" s="78"/>
-      <c r="K26" s="78"/>
-      <c r="L26" s="78"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="73"/>
+      <c r="K26" s="73"/>
+      <c r="L26" s="73"/>
       <c r="M26" s="48"/>
       <c r="N26" s="48"/>
       <c r="O26" s="48"/>
@@ -3588,10 +3583,10 @@
       <c r="Z37" s="19"/>
     </row>
     <row r="38" spans="1:26" ht="60" x14ac:dyDescent="0.15">
-      <c r="A38" s="84" t="s">
+      <c r="A38" s="78" t="s">
         <v>40</v>
       </c>
-      <c r="B38" s="84" t="s">
+      <c r="B38" s="78" t="s">
         <v>41</v>
       </c>
       <c r="C38" s="59" t="s">
@@ -3624,10 +3619,10 @@
       <c r="Z38" s="49"/>
     </row>
     <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="85" t="s">
+      <c r="A39" s="79" t="s">
         <v>44</v>
       </c>
-      <c r="B39" s="85" t="s">
+      <c r="B39" s="79" t="s">
         <v>45</v>
       </c>
       <c r="C39" s="61" t="str">
@@ -3659,10 +3654,10 @@
       <c r="Z39" s="49"/>
     </row>
     <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="85">
+      <c r="A40" s="79">
         <v>123321</v>
       </c>
-      <c r="B40" s="85">
+      <c r="B40" s="79">
         <v>321123</v>
       </c>
       <c r="C40" s="61" t="str">
@@ -3694,10 +3689,10 @@
       <c r="Z40" s="49"/>
     </row>
     <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="84">
+      <c r="A41" s="78">
         <v>7353774</v>
       </c>
-      <c r="B41" s="86">
+      <c r="B41" s="80">
         <v>7383774</v>
       </c>
       <c r="C41" s="61" t="str">
@@ -3729,10 +3724,10 @@
       <c r="Z41" s="49"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="85">
+      <c r="A42" s="79">
         <v>321456</v>
       </c>
-      <c r="B42" s="85">
+      <c r="B42" s="79">
         <v>321453</v>
       </c>
       <c r="C42" s="61" t="str">
@@ -3764,10 +3759,10 @@
       <c r="Z42" s="49"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="85">
+      <c r="A43" s="79">
         <v>455555</v>
       </c>
-      <c r="B43" s="85">
+      <c r="B43" s="79">
         <v>455555</v>
       </c>
       <c r="C43" s="61" t="str">
@@ -3882,9 +3877,9 @@
       <c r="Z46" s="19"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="80"/>
-      <c r="B47" s="81"/>
-      <c r="C47" s="70"/>
+      <c r="A47" s="75"/>
+      <c r="B47" s="21"/>
+      <c r="C47" s="19"/>
       <c r="D47" s="19"/>
       <c r="E47" s="19"/>
       <c r="F47" s="19"/>
@@ -3910,9 +3905,9 @@
       <c r="Z47" s="19"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="82"/>
-      <c r="B48" s="82"/>
-      <c r="C48" s="83"/>
+      <c r="A48" s="76"/>
+      <c r="B48" s="76"/>
+      <c r="C48" s="77"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19"/>
       <c r="F48" s="19"/>
@@ -3938,9 +3933,9 @@
       <c r="Z48" s="19"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="70"/>
-      <c r="B49" s="70"/>
-      <c r="C49" s="70"/>
+      <c r="A49" s="19"/>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
       <c r="D49" s="19"/>
       <c r="E49" s="19"/>
       <c r="F49" s="19"/>
@@ -30678,13 +30673,13 @@
       <c r="A20" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="69" t="s">
+      <c r="C20" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="68"/>
+      <c r="D20" s="83"/>
       <c r="E20" s="30" t="s">
         <v>7</v>
       </c>
@@ -30699,11 +30694,11 @@
     </row>
     <row r="21" spans="1:9" ht="45" x14ac:dyDescent="0.15">
       <c r="A21" s="19"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="69" t="s">
+      <c r="B21" s="83"/>
+      <c r="C21" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="68"/>
+      <c r="D21" s="83"/>
       <c r="E21" s="30" t="s">
         <v>8</v>
       </c>
@@ -31297,15 +31292,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="13" x14ac:dyDescent="0.15">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="81" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
@@ -31321,12 +31310,12 @@
         <v>49</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72"/>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -31342,12 +31331,12 @@
         <v>88</v>
       </c>
       <c r="E3" s="9"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
@@ -31364,12 +31353,12 @@
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="5"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="72"/>
-      <c r="N4" s="72"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
     </row>
     <row r="5" spans="1:14" ht="59" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
@@ -31386,12 +31375,12 @@
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="73"/>
-      <c r="K5" s="73"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="73"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:14" ht="42" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
@@ -31408,30 +31397,24 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
     </row>
     <row r="7" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="F7" s="9"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="72"/>
-      <c r="K7" s="72"/>
-      <c r="L7" s="72"/>
-      <c r="M7" s="72"/>
-      <c r="N7" s="72"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
     </row>
     <row r="8" spans="1:14" ht="13" x14ac:dyDescent="0.15">
       <c r="F8" s="9"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="71"/>
-      <c r="K8" s="71"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="71"/>
-      <c r="N8" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
